--- a/Module 02 - The role of effective control environments, information systems and controls in producing reliable financial information.xlsx
+++ b/Module 02 - The role of effective control environments, information systems and controls in producing reliable financial information.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/AD/Class notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/AD/Bob's AD Class notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="245" documentId="8_{1432DB73-4717-4E18-A95D-9ACFCBCEC670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{260D5DD6-BA51-43E4-AF08-FE9B62FBD50C}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="585" windowWidth="5865" windowHeight="11385" activeTab="1" xr2:uid="{B69195B6-1C8B-4BB5-BB83-1F7438CE4EFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{B69195B6-1C8B-4BB5-BB83-1F7438CE4EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1409,7 +1409,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB230FB-E3DE-436E-BF92-14AA9CD2847E}">
   <dimension ref="A1:O518"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A490" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E552" sqref="E552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1752,7 +1752,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1900,7 +1900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD98B2D-6391-4EE8-85CB-3CBC70DA40C2}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2119,7 +2121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D83D60-4A38-4906-9731-DE832A2E33F9}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
